--- a/data/income_statement/1digit/size/S_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/S_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>S-Other services activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>S-Other services activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,638 +841,723 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>762349.49144</v>
+        <v>766289.59379</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1002854.03059</v>
+        <v>994311.40854</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1324656.71645</v>
+        <v>1319028.89965</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1552969.19068</v>
+        <v>1547715.2367</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1746960.80288</v>
+        <v>1721168.70254</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1410189.88284</v>
+        <v>1417667.29429</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1702062.24682</v>
+        <v>1710927.04652</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1924757.49302</v>
+        <v>1898954.20668</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2393326.01957</v>
+        <v>2360196.14544</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2602043.55886</v>
+        <v>2591353.38433</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3024648.26886</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3022818.94509</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3575182.938</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>714342.2314200001</v>
+        <v>716332.8370599999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>953389.56303</v>
+        <v>945309.2166800001</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1262833.87728</v>
+        <v>1256930.12349</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1481757.06663</v>
+        <v>1479290.42061</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1654033.37235</v>
+        <v>1624809.48691</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1325137.85087</v>
+        <v>1332107.96505</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1625377.91829</v>
+        <v>1621275.13034</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1829094.31447</v>
+        <v>1798640.90319</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2271916.91795</v>
+        <v>2232373.34129</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2475142.92772</v>
+        <v>2462893.97426</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2842202.10716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2853799.19209</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3309759.09</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>19734.41369</v>
+        <v>18545.90189</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>16897.64639</v>
+        <v>16565.3915</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>21601.74031</v>
+        <v>20461.1236</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>17091.10183</v>
+        <v>16490.40672</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>38359.63857</v>
+        <v>41943.71439</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>34115.90788</v>
+        <v>36330.6177</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>13507.01828</v>
+        <v>26118.82736</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>14286.42044</v>
+        <v>18616.04809</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>32525.18208999999</v>
+        <v>43839.12568</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>30038.86519</v>
+        <v>28308.73717</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>51947.63976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>41860.46532</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>129837.252</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>28272.84633</v>
+        <v>31410.85484</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>32566.82117</v>
+        <v>32436.80036</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>40221.09886</v>
+        <v>41637.65255999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>54121.02222</v>
+        <v>51934.40936999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>54567.79196</v>
+        <v>54415.50124</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>50936.12409</v>
+        <v>49228.71154</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>63177.31025</v>
+        <v>63533.08882</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>81376.75811</v>
+        <v>81697.25539999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>88883.91953</v>
+        <v>83983.67847</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>96861.76595</v>
+        <v>100150.6729</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>130498.52194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>127159.28768</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>135586.596</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7824.913529999999</v>
+        <v>7620.13451</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>13801.21973</v>
+        <v>12883.15782</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>19742.6376</v>
+        <v>19644.02672</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>10373.11236</v>
+        <v>11116.6139</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>11763.81162</v>
+        <v>12570.05481</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>13740.0277</v>
+        <v>13863.16292</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12883.07877</v>
+        <v>19180.5819</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12523.71666</v>
+        <v>12028.56528</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>13434.50752</v>
+        <v>12803.25989</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>23570.84899</v>
+        <v>24897.74168</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>44863.31594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>37856.51397</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>46502.47</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6765.2515</v>
+        <v>6620.0872</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>10906.15237</v>
+        <v>10028.61053</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>17161.70641</v>
+        <v>17112.69632</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8116.473119999999</v>
+        <v>8339.800950000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9411.881170000001</v>
+        <v>10180.86975</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11245.82074</v>
+        <v>11359.25547</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10203.44312</v>
+        <v>16768.77936</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>10304.52772</v>
+        <v>10048.31146</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11301.95122</v>
+        <v>10959.92903</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>20891.24813</v>
+        <v>22223.44336</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>42834.56165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>35602.34215</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>44361.065</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>403.0511</v>
+        <v>341.16866</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2361.53235</v>
+        <v>2321.01228</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2328.79128</v>
+        <v>2278.35033</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1743.64222</v>
+        <v>2042.95482</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2141.2677</v>
+        <v>2173.18355</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2284.33869</v>
+        <v>2288.5655</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2141.73527</v>
+        <v>1873.90216</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1821.59905</v>
+        <v>1584.95258</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1372.79556</v>
+        <v>1107.50245</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>1372.20261</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>889.11531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>879.59593</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>546.282</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>656.6109300000001</v>
+        <v>658.87865</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>533.5350100000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>252.13991</v>
+        <v>252.98007</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>512.99702</v>
+        <v>733.85813</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>210.66275</v>
+        <v>216.00151</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>209.86827</v>
+        <v>215.34195</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>537.90038</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>397.58989</v>
+        <v>395.30124</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>759.7607399999999</v>
+        <v>735.8284100000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1307.39825</v>
+        <v>1302.09571</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1139.63898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1374.57589</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1595.123</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>754524.57791</v>
+        <v>758669.45928</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>989052.8108599999</v>
+        <v>981428.25072</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1304914.07885</v>
+        <v>1299384.87293</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1542596.07832</v>
+        <v>1536598.6228</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1735196.99126</v>
+        <v>1708598.64773</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1396449.85514</v>
+        <v>1403804.13137</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1689179.16805</v>
+        <v>1691746.46462</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1912233.77636</v>
+        <v>1886925.6414</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2379891.51205</v>
+        <v>2347392.88555</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2578472.70987</v>
+        <v>2566455.64265</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2979784.95292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2984962.43112</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3528680.468</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>552556.2417</v>
+        <v>556054.2784600001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>748753.79136</v>
+        <v>740209.9703299999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>995689.33984</v>
+        <v>988082.62052</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1200467.11775</v>
+        <v>1202137.99821</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1368486.30161</v>
+        <v>1348232.16066</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1042579.1349</v>
+        <v>1055887.43683</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1277426.89829</v>
+        <v>1282341.21725</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1485240.6611</v>
+        <v>1465590.67957</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1850513.87358</v>
+        <v>1827390.75625</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2017696.01923</v>
+        <v>2016618.63863</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2345694.87946</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2344037.03953</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2841138.4</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>42944.53339</v>
+        <v>40541.93799</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>45170.56620999999</v>
+        <v>42795.83119</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>73216.45263</v>
+        <v>68658.24821999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>75909.1404</v>
+        <v>74079.44584999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>71297.54972</v>
+        <v>72391.83955000002</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>48930.81029</v>
+        <v>52779.42540000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>63951.96892</v>
+        <v>65698.46831</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>67616.15083</v>
+        <v>74041.88751999999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>73162.06981</v>
+        <v>80833.76054999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>95635.02337000001</v>
+        <v>97260.05855</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>105951.36888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>101319.13751</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>172045.455</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>223137.63703</v>
+        <v>219732.54106</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>342644.16547</v>
+        <v>339714.61155</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>479642.79024</v>
+        <v>472587.26472</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>641782.11386</v>
+        <v>639882.18316</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>709489.58228</v>
+        <v>686821.41446</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>363475.54092</v>
+        <v>361163.94991</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>471990.05587</v>
+        <v>465775.8362400001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>583130.96777</v>
+        <v>564141.23196</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>798289.4478099999</v>
+        <v>785975.66076</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>753441.64692</v>
+        <v>756024.95679</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>934620.92603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>925897.49226</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1300700.919</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>285952.44239</v>
+        <v>295295.21389</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>359714.2018</v>
+        <v>356609.55344</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>441924.21779</v>
+        <v>445920.33186</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>477509.5780899999</v>
+        <v>482990.06728</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>585539.56984</v>
+        <v>587014.0926800001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>627099.40128</v>
+        <v>638885.70277</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>727243.2480599999</v>
+        <v>736755.5371100002</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>823475.62071</v>
+        <v>814775.5071400001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>962971.03831</v>
+        <v>944938.7877800001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1155351.94748</v>
+        <v>1151297.13443</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1286853.85572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1299698.79893</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1348193.184</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>521.6288900000001</v>
+        <v>484.58552</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1224.85788</v>
+        <v>1089.97415</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>905.87918</v>
+        <v>916.77572</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5266.285400000001</v>
+        <v>5186.30192</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>2159.59977</v>
+        <v>2004.81397</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>3073.38241</v>
+        <v>3058.35875</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>14241.62544</v>
+        <v>14111.37559</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11017.92179</v>
+        <v>12632.05295</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>16091.31765</v>
+        <v>15642.54716</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>13267.40146</v>
+        <v>12036.48886</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>18268.72883</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17121.61083</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>20198.842</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>201968.33621</v>
+        <v>202615.18082</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>240299.0195</v>
+        <v>241218.28039</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>309224.73901</v>
+        <v>311302.25241</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>342128.9605700001</v>
+        <v>334460.62459</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>366710.68965</v>
+        <v>360366.48707</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>353870.72024</v>
+        <v>347916.69454</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>411752.26976</v>
+        <v>409405.24737</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>426993.11526</v>
+        <v>421334.96183</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>529377.63847</v>
+        <v>520002.1293</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>560776.6906399999</v>
+        <v>549837.00402</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>634090.07346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>640925.3915899999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>687542.068</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>184183.17299</v>
+        <v>183077.21021</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>207280.24588</v>
+        <v>206128.41333</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>268295.24934</v>
+        <v>268502.98717</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>309300.12189</v>
+        <v>304316.56075</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>330781.74173</v>
+        <v>328158.59116</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>327602.0819700001</v>
+        <v>326206.02833</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>373160.08397</v>
+        <v>369507.2485</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>436597.10649</v>
+        <v>418295.90385</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>509883.32686</v>
+        <v>481520.9428199999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>529982.4485000001</v>
+        <v>521995.90394</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>616706.32754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>612049.5775899999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>636942.907</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1625.23525</v>
@@ -1580,22 +1566,22 @@
         <v>85.92828</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>176.31605</v>
+        <v>171.67753</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>711.50324</v>
+        <v>498.26516</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>510.9021700000001</v>
+        <v>1342.49131</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>420.00738</v>
+        <v>3307.54396</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>186.35882</v>
+        <v>2663.71096</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2431.52176</v>
+        <v>344.06428</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>1010.79946</v>
@@ -1604,178 +1590,203 @@
         <v>1786.19942</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1860.11993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1794.5481</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>773.872</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>35000.35119</v>
+        <v>34894.22318</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>38079.92933</v>
+        <v>38235.76373000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>40391.12241</v>
+        <v>39873.51583</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>46148.86746</v>
+        <v>50159.87573000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>55149.79864000001</v>
+        <v>57536.87377000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>52803.58455</v>
+        <v>52945.54595</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>54054.74928</v>
+        <v>53669.51681</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>64535.81982</v>
+        <v>63205.28904</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>76897.51192</v>
+        <v>74367.11785</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>97390.67289</v>
+        <v>96513.68594</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>118976.62005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>120543.99728</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>135381.666</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>147557.58655</v>
+        <v>146557.75178</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>169114.38827</v>
+        <v>167806.72132</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>227727.81088</v>
+        <v>228457.79381</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>262439.75119</v>
+        <v>253658.41986</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>275121.0409199999</v>
+        <v>269279.2260800001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>274378.4900399999</v>
+        <v>269952.93842</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>318918.97587</v>
+        <v>313174.02073</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>369629.76491</v>
+        <v>354746.5505299999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>431975.01548</v>
+        <v>406143.02551</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>430805.57619</v>
+        <v>423696.01858</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>495869.58756</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>489711.03221</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>500787.369</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>17785.16322</v>
+        <v>19537.97061</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>33018.77362</v>
+        <v>35089.86706</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>40929.48967</v>
+        <v>42799.26523999999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>32828.83868</v>
+        <v>30144.06384</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>35928.94792</v>
+        <v>32207.89591</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>26268.63827</v>
+        <v>21710.66621</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>38592.18579</v>
+        <v>39897.99887</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-9603.991229999998</v>
+        <v>3039.057979999997</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>19494.31161</v>
+        <v>38481.18648</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>30794.24214</v>
+        <v>27841.10008</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>17383.74592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>28875.81399999999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>50599.161</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>10321.75263</v>
+        <v>23453.8402</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>10485.67663</v>
+        <v>11904.24379</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>15564.28858</v>
+        <v>16342.49909</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>12611.373</v>
+        <v>12011.95315</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>20195.42414</v>
+        <v>17817.02359</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>27534.34015</v>
+        <v>18257.38112</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>19637.579</v>
+        <v>20906.9444</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>21368.47667</v>
+        <v>27933.5337</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>28102.06124</v>
+        <v>30802.45521</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>65843.68956</v>
+        <v>56398.88845000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>44455.18843</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>42917.86834</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>61374.6</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>92.03165</v>
+        <v>6744.927090000001</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>69.07933</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1022.94286</v>
+        <v>1043.14785</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>294.36448</v>
@@ -1784,16 +1795,16 @@
         <v>84.73936999999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>338.18328</v>
+        <v>338.08</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>39.95485000000001</v>
+        <v>119.30343</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>320.98737</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>341.69473</v>
+        <v>1.9</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>0</v>
@@ -1801,14 +1812,19 @@
       <c r="M26" s="48" t="n">
         <v>0.06408</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>127.553</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>15.04128</v>
+        <v>579.26252</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>45.83406</v>
@@ -1823,10 +1839,10 @@
         <v>390.49949</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3183.22072</v>
+        <v>3339.48149</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1559.67891</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>0</v>
@@ -1840,77 +1856,87 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>1890.155</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1615.57546</v>
+        <v>2042.27544</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1586.11067</v>
+        <v>1803.20906</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>1458.28936</v>
+        <v>1411.7562</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1788.04303</v>
+        <v>1679.34565</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2371.71163</v>
+        <v>2249.28991</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3013.02745</v>
+        <v>2255.9992</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3445.09907</v>
+        <v>3241.2477</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>2484.69587</v>
+        <v>1802.33896</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4666.617520000001</v>
+        <v>4267.81754</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>8676.237720000001</v>
+        <v>7689.96439</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>7618.76303</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>7764.234890000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5966.741</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>108.27391</v>
+        <v>108.1461</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>147.52692</v>
+        <v>147.40808</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>916.4766599999999</v>
+        <v>904.7931</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1374.59339</v>
+        <v>1371.50902</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1061.20727</v>
+        <v>1053.38022</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>483.1949899999999</v>
+        <v>509.94308</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>179.96882</v>
+        <v>173.12504</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>99.70186</v>
+        <v>99.31019000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>415.621</v>
+        <v>358.43697</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>169.16859</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>4.79263</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>109.452</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>215.75974</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>82.59379000000001</v>
+        <v>79.15219999999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>356.18959</v>
+        <v>517.87587</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>216.2732</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>71.07867</v>
+        <v>65.36266999999999</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>213.58016</v>
@@ -1946,49 +1977,54 @@
         <v>100.79302</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>154.37268</v>
+        <v>302.44225</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>99.39154000000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>900.99384</v>
+        <v>898.49384</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>2827.27445</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>870.088</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>89.13448999999999</v>
+        <v>3580.2956</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>62.60191</v>
+        <v>57.36333</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>280.1789</v>
+        <v>283.53324</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>343.1376999999999</v>
+        <v>334.31343</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>124.47766</v>
+        <v>97.55945999999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>280.92321</v>
+        <v>128.47864</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>211.11056</v>
+        <v>176.16592</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>187.31787</v>
+        <v>5547.19414</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>355.13566</v>
+        <v>5149.08147</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>223.99645</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>89.23049</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>232.634</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2187.50469</v>
+        <v>3723.65755</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2688.76149</v>
+        <v>3799.69592</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>5382.92137</v>
+        <v>6367.007460000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>2986.536360000001</v>
+        <v>3358.26284</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>5522.75005</v>
+        <v>7015.90455</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5266.10414</v>
+        <v>3684.69259</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6830.59103</v>
+        <v>8858.608900000001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5138.49024</v>
+        <v>6618.516949999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6761.241</v>
+        <v>8309.495929999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>38739.19365</v>
+        <v>31277.08018</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>15575.5744</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14662.76657</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>27834.7</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2.89406</v>
@@ -2060,7 +2106,7 @@
         <v>89.62402</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>16.7195</v>
+        <v>16.59014</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>2.52494</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>123.92781</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>110.279</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>28.56477</v>
@@ -2113,155 +2164,175 @@
       <c r="M34" s="48" t="n">
         <v>76.85711999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>189.959</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>5966.97258</v>
+        <v>6428.05733</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>5687.534890000001</v>
+        <v>5786.86824</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>6057.43016</v>
+        <v>5724.525689999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>5568.91012</v>
+        <v>4718.369809999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>10325.08982</v>
+        <v>6616.41774</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>14666.48218</v>
+        <v>7697.501939999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>8813.34215</v>
+        <v>6661.43134</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>12979.29882</v>
+        <v>13560.11925</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>15188.51149</v>
+        <v>12342.48346</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>17006.7203</v>
+        <v>16012.80599</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18138.70442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>17368.7203</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>24043.039</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4397.166310000001</v>
+        <v>5685.101529999999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>5799.01316</v>
+        <v>6284.14002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>8987.47443</v>
+        <v>12751.22452</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>5328.812559999999</v>
+        <v>5323.36706</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>13728.80107</v>
+        <v>11528.70882</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>14882.38827</v>
+        <v>7249.66313</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>10349.00403</v>
+        <v>12974.56015</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>16004.07804</v>
+        <v>19392.66302</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10618.614</v>
+        <v>10655.04004</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>46523.89120000001</v>
+        <v>32826.67335</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>21923.00631</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>17125.57985</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>27917.401</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>293.5080400000001</v>
+        <v>376.9188</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>330.92814</v>
+        <v>362.34986</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>514.30725</v>
+        <v>513.4395500000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>572.4644299999999</v>
+        <v>651.00597</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>979.29159</v>
+        <v>1001.69162</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>623.90234</v>
+        <v>608.6018800000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>966.3956999999999</v>
+        <v>942.82088</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>791.19774</v>
+        <v>776.69654</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1320.95917</v>
+        <v>1314.94931</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>3437.54975</v>
+        <v>3272.86705</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1731.57402</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1743.27742</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1636.304</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>938.45252</v>
+        <v>989.45911</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1128.13602</v>
+        <v>1194.44724</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>857.56067</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>538.83551</v>
+        <v>534.71851</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>313.27366</v>
+        <v>303.24566</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>565.36711</v>
+        <v>525.45811</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>679.68736</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1779.84949</v>
+        <v>1928.66274</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>953.8986299999999</v>
+        <v>663.5750599999999</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>3196.813250000001</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>3911.53716</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2197.666</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>21.32555</v>
+        <v>21.07593</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>8.243780000000001</v>
@@ -2288,16 +2364,16 @@
         <v>47.27175999999999</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>61.55689999999999</v>
+        <v>18.82038</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>61.63647</v>
+        <v>7.09147</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>12.78804</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>48.8889</v>
+        <v>5465.53883</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>11.7979</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>13.94249</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>20.78</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1922.37382</v>
+        <v>3207.76135</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1952.68275</v>
+        <v>2421.86343</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>5852.04424</v>
+        <v>9600.467849999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2553.93733</v>
+        <v>2752.16781</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>7831.85292</v>
+        <v>8227.534730000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6408.758800000001</v>
+        <v>4213.72811</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7049.51076</v>
+        <v>10038.01522</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>10309.09161</v>
+        <v>7259.94222</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6706.46778</v>
+        <v>6907.387900000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>36023.30955</v>
+        <v>22499.30736</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>12814.88967</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7979.89781</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>19059.732</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>14.70407</v>
@@ -2366,19 +2452,19 @@
         <v>0.5188299999999999</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>122.36215</v>
+        <v>84.33566</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>167.52357</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>20.01912</v>
+        <v>0</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>93.42700000000001</v>
+        <v>93.29764</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>132.27579</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
@@ -2386,14 +2472,19 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.55088</v>
+        <v>0.49875</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>40.77926</v>
+        <v>40.69187</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>113.84464</v>
@@ -2425,248 +2516,283 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1206.25143</v>
+        <v>1074.68352</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2379.02247</v>
+        <v>2297.23571</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1754.08234</v>
+        <v>1770.27652</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1615.78392</v>
+        <v>1337.6834</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4420.35858</v>
+        <v>1892.9755</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7048.85975</v>
+        <v>1720.91976</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1620.60305</v>
+        <v>1301.24865</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2940.84404</v>
+        <v>3827.83318</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1379.37009</v>
+        <v>1575.24523</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3811.73668</v>
+        <v>3803.20372</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>3451.06297</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3476.92497</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5002.919</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>10212.21056</v>
+        <v>10548.35277</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>8978.02607</v>
+        <v>9350.767960000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>12019.53718</v>
+        <v>12367.61328</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>16490.17287</v>
+        <v>16782.53639</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>16859.8227</v>
+        <v>19019.85933</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>16944.63554</v>
+        <v>19684.67076</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>21391.83008</v>
+        <v>25393.79151</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>27669.78288</v>
+        <v>34372.25086</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>42946.80353</v>
+        <v>35212.5232</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>50463.20191</v>
+        <v>42442.7789</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>48228.34608</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>39326.34742</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>40738.009</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9982.80661</v>
+        <v>10065.43007</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>8754.779689999999</v>
+        <v>9127.521580000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>11460.18249</v>
+        <v>11956.34953</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>15850.30965</v>
+        <v>16343.23707</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>16172.94353</v>
+        <v>18311.75254</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>16560.04656</v>
+        <v>19324.18294</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>20573.93013</v>
+        <v>24609.50736</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>26976.87096</v>
+        <v>31416.37406</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>37848.64434000001</v>
+        <v>34151.32257</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>43826.64705</v>
+        <v>40548.41767</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>46332.52615999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>37965.95659</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>39736.758</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>229.40395</v>
+        <v>482.9227</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>223.24638</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>559.3546899999999</v>
+        <v>411.26375</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>639.86322</v>
+        <v>439.29932</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>686.87917</v>
+        <v>708.10679</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>384.58898</v>
+        <v>360.48782</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>817.89995</v>
+        <v>784.2841500000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>692.91192</v>
+        <v>2955.8768</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>5098.15919</v>
+        <v>1061.20063</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>6636.554859999999</v>
+        <v>1894.36123</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1895.81992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1360.39083</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1001.251</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>13497.53898</v>
+        <v>26758.35651</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>28727.41102</v>
+        <v>31359.20287</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>35486.76664</v>
+        <v>34022.92653</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>23621.22625</v>
+        <v>20050.11354</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>25535.74829</v>
+        <v>19476.35135</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>21975.95461</v>
+        <v>13033.71344</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>26488.93068</v>
+        <v>22436.59161</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-31909.37548</v>
+        <v>-22792.3222</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-5969.044679999996</v>
+        <v>23416.07845</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-349.1614100000002</v>
+        <v>8970.536279999997</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-8312.41804</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>15341.75507</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>43318.351</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>5179.897609999999</v>
+        <v>5604.589489999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>6996.43223</v>
+        <v>4828.8848</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>9618.194170000001</v>
+        <v>9163.4051</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>11172.54859</v>
+        <v>11581.96677</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>12544.58507</v>
+        <v>11583.1522</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>11719.87568</v>
+        <v>10883.97257</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>12753.52782</v>
+        <v>13993.19296</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>29249.03937</v>
+        <v>18849.00155</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>26886.6769</v>
+        <v>22897.26454</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>29611.61759</v>
+        <v>27948.97903</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>34676.41332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>33306.65326</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>36324.503</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>125.17502</v>
+        <v>125.07851</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>62.77511999999999</v>
@@ -2675,121 +2801,136 @@
         <v>942.57274</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>98.55465</v>
+        <v>98.38061000000002</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>107.85916</v>
+        <v>83.65096000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>169.34781</v>
+        <v>134.61944</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>731.01819</v>
+        <v>86.75483</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>167.66258</v>
+        <v>161.98859</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>306.25524</v>
+        <v>206.75998</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>685.13531</v>
+        <v>660.82175</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>606.1935599999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>421.53</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>5054.722589999999</v>
+        <v>5479.51098</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>6933.65711</v>
+        <v>4766.10968</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>8675.621429999999</v>
+        <v>8220.832359999999</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>11073.99394</v>
+        <v>11483.58616</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>12436.72591</v>
+        <v>11499.50124</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>11550.52787</v>
+        <v>10749.35313</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>12022.50963</v>
+        <v>13906.43813</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>29081.37679</v>
+        <v>18687.01296</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>26580.42166</v>
+        <v>22690.50456</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>28926.48228</v>
+        <v>27288.15728</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>34070.21976000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>32700.4597</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>35902.973</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>5928.74504</v>
+        <v>5965.72489</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8211.63226</v>
+        <v>6408.82049</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>53400.14464</v>
+        <v>46876.33114</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>9340.365109999999</v>
+        <v>9715.133599999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>11654.82649</v>
+        <v>10707.51002</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>30856.33019</v>
+        <v>27321.20105</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>12969.50277</v>
+        <v>13527.99571</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>55896.34026</v>
+        <v>46332.70795</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>18454.16421</v>
+        <v>15489.7071</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>46455.12012000001</v>
+        <v>44758.1153</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>22282.87219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>23207.02077</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>22789.419</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>290.1639</v>
+        <v>252.4108</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>255.57528</v>
+        <v>44.75525</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>57.00123000000001</v>
+        <v>50.00123000000001</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>190.05386</v>
@@ -2804,7 +2945,7 @@
         <v>173.29245</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>417.4874599999999</v>
+        <v>419.4229100000001</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>306.05863</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>566.96502</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>261.1954</v>
+        <v>261.03726</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>630.05875</v>
+        <v>559.60474</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>359.8722</v>
+        <v>354.89736</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>397.03108</v>
+        <v>1222.19872</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>747.53175</v>
+        <v>637.7333400000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1805.18112</v>
+        <v>1740.63935</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1037.94289</v>
+        <v>929.71536</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>524.9840800000001</v>
+        <v>492.42824</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>372.48443</v>
+        <v>335.39898</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>947.87508</v>
+        <v>629.7816799999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>451.8824499999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>451.46058</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>774.514</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5377.385740000001</v>
+        <v>5452.27683</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7325.99823</v>
+        <v>5804.4605</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>52983.27121</v>
+        <v>46471.43255</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>8753.28017</v>
+        <v>8302.881019999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10442.74651</v>
+        <v>9605.228449999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>28770.88535</v>
+        <v>25300.29798</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>11758.26743</v>
+        <v>12424.9879</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>54953.86872</v>
+        <v>45420.85679999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>17775.62115</v>
+        <v>14848.24949</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>45372.67913</v>
+        <v>43993.76771</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>21264.02472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>22188.59517</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>22014.905</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>12748.69155</v>
+        <v>26397.22110999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>27512.21099</v>
+        <v>29779.26718</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-8295.183830000002</v>
+        <v>-3689.99951</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>25453.40973</v>
+        <v>21916.94671</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>26425.50687</v>
+        <v>20351.99353</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2839.500100000002</v>
+        <v>-3403.515039999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>26272.95573</v>
+        <v>22901.78886</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-58556.67637000001</v>
+        <v>-50276.02860000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>2463.468010000001</v>
+        <v>30823.63589</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-17192.66394</v>
+        <v>-7838.599990000002</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4081.12309</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>25441.38756</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>56853.435</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6679.97784</v>
+        <v>7643.24855</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>10288.82904</v>
+        <v>10426.2079</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>11562.69748</v>
+        <v>12468.48227</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>10742.71617</v>
+        <v>10921.55142</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>12405.4024</v>
+        <v>11696.19769</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>12407.59163</v>
+        <v>11730.80281</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>17284.04093</v>
+        <v>17343.04148</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>13683.52495</v>
+        <v>14121.70685</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>18076.70507</v>
+        <v>18615.61935</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>24525.37059</v>
+        <v>24131.56351</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>24022.82118</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>27818.03812</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>32683.479</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>6068.713710000001</v>
+        <v>18753.97256</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>17223.38195</v>
+        <v>19353.05928</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-19857.88131</v>
+        <v>-16158.48178</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>14710.69356</v>
+        <v>10995.39529</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>14020.10447</v>
+        <v>8655.795840000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-9568.091530000002</v>
+        <v>-15134.31785</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>8988.914800000002</v>
+        <v>5558.747380000001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-72240.20131999999</v>
+        <v>-64397.73545</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-15613.23706</v>
+        <v>12208.01654</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-41718.03453</v>
+        <v>-31970.1635</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-19941.69809000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-2376.650559999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>24169.956</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>959</v>
+        <v>890</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1095</v>
+        <v>1011</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1267</v>
+        <v>1154</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1388</v>
+        <v>1220</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1359</v>
+        <v>1177</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1219</v>
+        <v>1085</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1292</v>
+        <v>1150</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1412</v>
+        <v>1204</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1532</v>
+        <v>1278</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1221</v>
+        <v>1182</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1204</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>